--- a/data/stock_real_data.xlsx
+++ b/data/stock_real_data.xlsx
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:RE2"/>
+  <dimension ref="A1:RF3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2803,1426 +2803,2858 @@
           <t>date</t>
         </is>
       </c>
+      <c r="RF1" s="1" t="inlineStr">
+        <is>
+          <t>fecha</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>148.46</v>
+        <v>148.64</v>
       </c>
       <c r="B2" t="n">
-        <v>65.92</v>
+        <v>65.3</v>
       </c>
       <c r="C2" t="n">
-        <v>131.61</v>
+        <v>130.38</v>
       </c>
       <c r="D2" t="n">
-        <v>193.23</v>
+        <v>192.8</v>
       </c>
       <c r="E2" t="n">
-        <v>389.13</v>
+        <v>388.42</v>
       </c>
       <c r="F2" t="n">
-        <v>458.67</v>
+        <v>462.23</v>
       </c>
       <c r="G2" t="n">
-        <v>111.67</v>
+        <v>111.61</v>
       </c>
       <c r="H2" t="n">
-        <v>10.11</v>
+        <v>10.04</v>
       </c>
       <c r="I2" t="n">
-        <v>103.99</v>
+        <v>102.84</v>
       </c>
       <c r="J2" t="n">
-        <v>136.31</v>
+        <v>137.92</v>
       </c>
       <c r="K2" t="n">
-        <v>314.88</v>
+        <v>310.1</v>
       </c>
       <c r="L2" t="n">
-        <v>141.02</v>
+        <v>140.38</v>
       </c>
       <c r="M2" t="n">
-        <v>99.52</v>
+        <v>100.91</v>
       </c>
       <c r="N2" t="n">
-        <v>78.97</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="O2" t="n">
-        <v>95.67</v>
+        <v>94.93000000000001</v>
       </c>
       <c r="P2" t="n">
         <v>204.35</v>
       </c>
       <c r="Q2" t="n">
-        <v>132.88</v>
+        <v>131.35</v>
       </c>
       <c r="R2" t="n">
-        <v>61.05</v>
+        <v>60.48</v>
       </c>
       <c r="S2" t="n">
-        <v>192.58</v>
+        <v>189.16</v>
       </c>
       <c r="T2" t="n">
-        <v>185.91</v>
+        <v>183.42</v>
       </c>
       <c r="U2" t="n">
-        <v>53.53</v>
+        <v>53.28</v>
       </c>
       <c r="V2" t="n">
         <v>230.09</v>
       </c>
       <c r="W2" t="n">
-        <v>10.06</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="X2" t="n">
-        <v>98.34999999999999</v>
+        <v>97.02</v>
       </c>
       <c r="Y2" t="n">
-        <v>100.86</v>
+        <v>102.22</v>
       </c>
       <c r="Z2" t="n">
-        <v>307.16</v>
+        <v>306.02</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.3</v>
+        <v>76.78</v>
       </c>
       <c r="AB2" t="n">
-        <v>189.79</v>
+        <v>189.29</v>
       </c>
       <c r="AC2" t="n">
-        <v>126.72</v>
+        <v>124.74</v>
       </c>
       <c r="AD2" t="n">
-        <v>538.87</v>
+        <v>526.6</v>
       </c>
       <c r="AE2" t="n">
-        <v>184.25</v>
+        <v>185.28</v>
       </c>
       <c r="AF2" t="n">
-        <v>296.73</v>
+        <v>294.84</v>
       </c>
       <c r="AG2" t="n">
-        <v>69.27</v>
+        <v>69.65000000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>209.11</v>
+        <v>204.91</v>
       </c>
       <c r="AI2" t="n">
-        <v>338.85</v>
+        <v>333.74</v>
       </c>
       <c r="AJ2" t="n">
-        <v>389.87</v>
+        <v>386.22</v>
       </c>
       <c r="AK2" t="n">
-        <v>22.45</v>
+        <v>22.33</v>
       </c>
       <c r="AL2" t="n">
         <v>241.19</v>
       </c>
       <c r="AM2" t="n">
-        <v>184.06</v>
+        <v>180.69</v>
       </c>
       <c r="AN2" t="n">
-        <v>66.42</v>
+        <v>65.34999999999999</v>
       </c>
       <c r="AO2" t="n">
-        <v>90.03</v>
+        <v>88.16</v>
       </c>
       <c r="AP2" t="n">
-        <v>45.66</v>
+        <v>45.13</v>
       </c>
       <c r="AQ2" t="n">
         <v>109.66</v>
       </c>
       <c r="AR2" t="n">
-        <v>328.36</v>
+        <v>324.36</v>
       </c>
       <c r="AS2" t="n">
-        <v>25.57</v>
+        <v>25.32</v>
       </c>
       <c r="AT2" t="n">
-        <v>147.89</v>
+        <v>146.19</v>
       </c>
       <c r="AU2" t="n">
-        <v>303.1</v>
+        <v>297.03</v>
       </c>
       <c r="AV2" t="n">
-        <v>309.81</v>
+        <v>306.36</v>
       </c>
       <c r="AW2" t="n">
-        <v>3469.36</v>
+        <v>3431.08</v>
       </c>
       <c r="AX2" t="n">
-        <v>219.78</v>
+        <v>217.73</v>
       </c>
       <c r="AY2" t="n">
-        <v>182.7</v>
+        <v>180.68</v>
       </c>
       <c r="AZ2" t="n">
         <v>665.38</v>
       </c>
       <c r="BA2" t="n">
-        <v>46.06</v>
+        <v>46.34</v>
       </c>
       <c r="BB2" t="n">
-        <v>49.33</v>
+        <v>49.48</v>
       </c>
       <c r="BC2" t="n">
-        <v>46.24</v>
+        <v>46.16</v>
       </c>
       <c r="BD2" t="n">
-        <v>30.56</v>
+        <v>30.23</v>
       </c>
       <c r="BE2" t="n">
-        <v>224.72</v>
+        <v>225.6</v>
       </c>
       <c r="BF2" t="n">
-        <v>480.01</v>
+        <v>471.22</v>
       </c>
       <c r="BG2" t="n">
-        <v>89</v>
+        <v>86.69</v>
       </c>
       <c r="BH2" t="n">
-        <v>66.77</v>
+        <v>67.31999999999999</v>
       </c>
       <c r="BI2" t="n">
-        <v>138.43</v>
+        <v>133.48</v>
       </c>
       <c r="BJ2" t="n">
-        <v>979.35</v>
+        <v>973.89</v>
       </c>
       <c r="BK2" t="n">
-        <v>160.24</v>
+        <v>160.82</v>
       </c>
       <c r="BL2" t="n">
-        <v>86.77</v>
+        <v>85.23999999999999</v>
       </c>
       <c r="BM2" t="n">
-        <v>185.22</v>
+        <v>185.74</v>
       </c>
       <c r="BN2" t="n">
-        <v>5005.25</v>
+        <v>5001.5</v>
       </c>
       <c r="BO2" t="n">
-        <v>29.35</v>
+        <v>28.9</v>
       </c>
       <c r="BP2" t="n">
-        <v>106.02</v>
+        <v>105.74</v>
       </c>
       <c r="BQ2" t="n">
-        <v>55.89</v>
+        <v>56.09</v>
       </c>
       <c r="BR2" t="n">
         <v>235.49</v>
       </c>
       <c r="BS2" t="n">
-        <v>242.71</v>
+        <v>242.49</v>
       </c>
       <c r="BT2" t="n">
-        <v>69.61</v>
+        <v>68.98</v>
       </c>
       <c r="BU2" t="n">
-        <v>71.27</v>
+        <v>70.36</v>
       </c>
       <c r="BV2" t="n">
-        <v>98.5</v>
+        <v>97.43000000000001</v>
       </c>
       <c r="BW2" t="n">
-        <v>295.8</v>
+        <v>293.72</v>
       </c>
       <c r="BX2" t="n">
-        <v>38.73</v>
+        <v>35.54</v>
       </c>
       <c r="BY2" t="n">
-        <v>119.15</v>
+        <v>118.36</v>
       </c>
       <c r="BZ2" t="n">
-        <v>38.55</v>
+        <v>38</v>
       </c>
       <c r="CA2" t="n">
-        <v>197.03</v>
+        <v>196.58</v>
       </c>
       <c r="CB2" t="n">
-        <v>126.56</v>
+        <v>126.81</v>
       </c>
       <c r="CC2" t="n">
-        <v>87.64</v>
+        <v>86.5</v>
       </c>
       <c r="CD2" t="n">
-        <v>25.82</v>
+        <v>25.85</v>
       </c>
       <c r="CE2" t="n">
-        <v>63.58</v>
+        <v>63.49</v>
       </c>
       <c r="CF2" t="n">
-        <v>63.4</v>
+        <v>63.39</v>
       </c>
       <c r="CG2" t="n">
-        <v>353.44</v>
+        <v>351.65</v>
       </c>
       <c r="CH2" t="n">
-        <v>207.97</v>
+        <v>211.99</v>
       </c>
       <c r="CI2" t="n">
-        <v>142.98</v>
+        <v>140.75</v>
       </c>
       <c r="CJ2" t="n">
-        <v>187.46</v>
+        <v>188.54</v>
       </c>
       <c r="CK2" t="n">
-        <v>65.22</v>
+        <v>66.27</v>
       </c>
       <c r="CL2" t="n">
-        <v>244.57</v>
+        <v>243.49</v>
       </c>
       <c r="CM2" t="n">
-        <v>56.72</v>
+        <v>56.37</v>
       </c>
       <c r="CN2" t="n">
-        <v>33.38</v>
+        <v>32.52</v>
       </c>
       <c r="CO2" t="n">
-        <v>81.31</v>
+        <v>80.95999999999999</v>
       </c>
       <c r="CP2" t="n">
-        <v>153.01</v>
+        <v>154.18</v>
       </c>
       <c r="CQ2" t="n">
-        <v>81.54000000000001</v>
+        <v>82.23999999999999</v>
       </c>
       <c r="CR2" t="n">
-        <v>359.88</v>
+        <v>353.87</v>
       </c>
       <c r="CS2" t="n">
-        <v>155.7</v>
+        <v>154.64</v>
       </c>
       <c r="CT2" t="n">
-        <v>58.05</v>
+        <v>57.2</v>
       </c>
       <c r="CU2" t="n">
-        <v>267.54</v>
+        <v>265.05</v>
       </c>
       <c r="CV2" t="n">
-        <v>107.24</v>
+        <v>105.83</v>
       </c>
       <c r="CW2" t="n">
-        <v>299.58</v>
+        <v>292.47</v>
       </c>
       <c r="CX2" t="n">
-        <v>136.84</v>
+        <v>133.43</v>
       </c>
       <c r="CY2" t="n">
-        <v>205.67</v>
+        <v>204.45</v>
       </c>
       <c r="CZ2" t="n">
-        <v>63.7</v>
+        <v>62.46</v>
       </c>
       <c r="DA2" t="n">
-        <v>82</v>
+        <v>81.15000000000001</v>
       </c>
       <c r="DB2" t="n">
-        <v>45.96</v>
+        <v>46.1</v>
       </c>
       <c r="DC2" t="n">
-        <v>150.61</v>
+        <v>148.46</v>
       </c>
       <c r="DD2" t="n">
-        <v>249.78</v>
+        <v>248.35</v>
       </c>
       <c r="DE2" t="n">
-        <v>69.70999999999999</v>
+        <v>69.37</v>
       </c>
       <c r="DF2" t="n">
-        <v>69.40000000000001</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="DG2" t="n">
-        <v>89.48</v>
+        <v>87.98</v>
       </c>
       <c r="DH2" t="n">
-        <v>87.61</v>
+        <v>86.54000000000001</v>
       </c>
       <c r="DI2" t="n">
-        <v>35.31</v>
+        <v>34.85</v>
       </c>
       <c r="DJ2" t="n">
-        <v>24.94</v>
+        <v>24.7</v>
       </c>
       <c r="DK2" t="n">
-        <v>96.79000000000001</v>
+        <v>98.28</v>
       </c>
       <c r="DL2" t="n">
-        <v>95.53</v>
+        <v>94.44</v>
       </c>
       <c r="DM2" t="n">
-        <v>163.01</v>
+        <v>160.69</v>
       </c>
       <c r="DN2" t="n">
-        <v>59.8</v>
+        <v>59.05</v>
       </c>
       <c r="DO2" t="n">
-        <v>52.05</v>
+        <v>51.93</v>
       </c>
       <c r="DP2" t="n">
-        <v>367.73</v>
+        <v>365.99</v>
       </c>
       <c r="DQ2" t="n">
-        <v>62.77</v>
+        <v>61.94</v>
       </c>
       <c r="DR2" t="n">
-        <v>73.48</v>
+        <v>73.17</v>
       </c>
       <c r="DS2" t="n">
-        <v>1074.98</v>
+        <v>1064.02</v>
       </c>
       <c r="DT2" t="n">
-        <v>27.54</v>
+        <v>27.51</v>
       </c>
       <c r="DU2" t="n">
-        <v>453.27</v>
+        <v>434.77</v>
       </c>
       <c r="DV2" t="n">
-        <v>89.76000000000001</v>
+        <v>89.65000000000001</v>
       </c>
       <c r="DW2" t="n">
-        <v>33.04</v>
+        <v>32.85</v>
       </c>
       <c r="DX2" t="n">
-        <v>369.24</v>
+        <v>364.6</v>
       </c>
       <c r="DY2" t="n">
-        <v>66.26000000000001</v>
+        <v>63.05</v>
       </c>
       <c r="DZ2" t="n">
-        <v>203.32</v>
+        <v>202.25</v>
       </c>
       <c r="EA2" t="n">
-        <v>193.34</v>
+        <v>194.64</v>
       </c>
       <c r="EB2" t="n">
-        <v>177.35</v>
+        <v>172.1</v>
       </c>
       <c r="EC2" t="n">
-        <v>465.07</v>
+        <v>475.87</v>
       </c>
       <c r="ED2" t="n">
-        <v>110.1</v>
+        <v>112.72</v>
       </c>
       <c r="EE2" t="n">
-        <v>63.95</v>
+        <v>66.19</v>
       </c>
       <c r="EF2" t="n">
-        <v>34.15</v>
+        <v>33.92</v>
       </c>
       <c r="EG2" t="n">
-        <v>83.91</v>
+        <v>83.77</v>
       </c>
       <c r="EH2" t="n">
-        <v>155.99</v>
+        <v>155.32</v>
       </c>
       <c r="EI2" t="n">
-        <v>164.59</v>
+        <v>163.17</v>
       </c>
       <c r="EJ2" t="n">
-        <v>189.66</v>
+        <v>188.32</v>
       </c>
       <c r="EK2" t="n">
-        <v>72.75</v>
+        <v>73.70999999999999</v>
       </c>
       <c r="EL2" t="n">
-        <v>71.90000000000001</v>
+        <v>71.66</v>
       </c>
       <c r="EM2" t="n">
-        <v>56.62</v>
+        <v>55.84</v>
       </c>
       <c r="EN2" t="n">
-        <v>420.37</v>
+        <v>419.84</v>
       </c>
       <c r="EO2" t="n">
-        <v>202.53</v>
+        <v>200.93</v>
       </c>
       <c r="EP2" t="n">
-        <v>38.25</v>
+        <v>38.22</v>
       </c>
       <c r="EQ2" t="n">
-        <v>129.31</v>
+        <v>127.73</v>
       </c>
       <c r="ER2" t="n">
-        <v>113.75</v>
+        <v>116.21</v>
       </c>
       <c r="ES2" t="n">
-        <v>84</v>
+        <v>81.55</v>
       </c>
       <c r="ET2" t="n">
-        <v>101.63</v>
+        <v>101.26</v>
       </c>
       <c r="EU2" t="n">
-        <v>307.02</v>
+        <v>309.62</v>
       </c>
       <c r="EV2" t="n">
-        <v>69.18000000000001</v>
+        <v>67.84999999999999</v>
       </c>
       <c r="EW2" t="n">
-        <v>265.32</v>
+        <v>261.91</v>
       </c>
       <c r="EX2" t="n">
-        <v>51.52</v>
+        <v>52.66</v>
       </c>
       <c r="EY2" t="n">
-        <v>75.91</v>
+        <v>75.73</v>
       </c>
       <c r="EZ2" t="n">
-        <v>129.63</v>
+        <v>131.03</v>
       </c>
       <c r="FA2" t="n">
-        <v>391.68</v>
+        <v>385.25</v>
       </c>
       <c r="FB2" t="n">
-        <v>125.19</v>
+        <v>124.34</v>
       </c>
       <c r="FC2" t="n">
-        <v>62.52</v>
+        <v>60.95</v>
       </c>
       <c r="FD2" t="n">
-        <v>83.13</v>
+        <v>82.77</v>
       </c>
       <c r="FE2" t="n">
-        <v>128.99</v>
+        <v>128.76</v>
       </c>
       <c r="FF2" t="n">
-        <v>267.87</v>
+        <v>264.8</v>
       </c>
       <c r="FG2" t="n">
-        <v>52.75</v>
+        <v>52.32</v>
       </c>
       <c r="FH2" t="n">
-        <v>250.69</v>
+        <v>253.81</v>
       </c>
       <c r="FI2" t="n">
-        <v>921.39</v>
+        <v>933.38</v>
       </c>
       <c r="FJ2" t="n">
-        <v>71.44</v>
+        <v>70.95999999999999</v>
       </c>
       <c r="FK2" t="n">
-        <v>291.2</v>
+        <v>290.33</v>
       </c>
       <c r="FL2" t="n">
-        <v>69.58</v>
+        <v>68.98999999999999</v>
       </c>
       <c r="FM2" t="n">
-        <v>335.17</v>
+        <v>331.69</v>
       </c>
       <c r="FN2" t="n">
-        <v>66.73</v>
+        <v>66.34</v>
       </c>
       <c r="FO2" t="n">
-        <v>62.5</v>
+        <v>59.61</v>
       </c>
       <c r="FP2" t="n">
-        <v>42.9</v>
+        <v>42.83</v>
       </c>
       <c r="FQ2" t="n">
-        <v>203</v>
+        <v>202.65</v>
       </c>
       <c r="FR2" t="n">
-        <v>156</v>
+        <v>154.63</v>
       </c>
       <c r="FS2" t="n">
-        <v>107.88</v>
+        <v>107.15</v>
       </c>
       <c r="FT2" t="n">
-        <v>309.88</v>
+        <v>310.33</v>
       </c>
       <c r="FU2" t="n">
-        <v>459.71</v>
+        <v>453.3</v>
       </c>
       <c r="FV2" t="n">
-        <v>74.68000000000001</v>
+        <v>73.62</v>
       </c>
       <c r="FW2" t="n">
-        <v>111.75</v>
+        <v>110.33</v>
       </c>
       <c r="FX2" t="n">
-        <v>262.99</v>
+        <v>262.37</v>
       </c>
       <c r="FY2" t="n">
-        <v>70.48</v>
+        <v>72.51000000000001</v>
       </c>
       <c r="FZ2" t="n">
-        <v>43.49</v>
+        <v>43.37</v>
       </c>
       <c r="GA2" t="n">
-        <v>160.25</v>
+        <v>158.61</v>
       </c>
       <c r="GB2" t="n">
-        <v>40.19</v>
+        <v>39.91</v>
       </c>
       <c r="GC2" t="n">
-        <v>229.94</v>
+        <v>227.37</v>
       </c>
       <c r="GD2" t="n">
-        <v>36.64</v>
+        <v>36.6</v>
       </c>
       <c r="GE2" t="n">
-        <v>9.33</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="GF2" t="n">
-        <v>109.89</v>
+        <v>107.6</v>
       </c>
       <c r="GG2" t="n">
-        <v>81.55</v>
+        <v>80.09</v>
       </c>
       <c r="GH2" t="n">
-        <v>55.38</v>
+        <v>54.61</v>
       </c>
       <c r="GI2" t="n">
-        <v>20.19</v>
+        <v>20</v>
       </c>
       <c r="GJ2" t="n">
-        <v>40.15</v>
+        <v>37.91</v>
       </c>
       <c r="GK2" t="n">
-        <v>209.59</v>
+        <v>209.58</v>
       </c>
       <c r="GL2" t="n">
-        <v>516.9</v>
+        <v>513.38</v>
       </c>
       <c r="GM2" t="n">
-        <v>207.89</v>
+        <v>209.44</v>
       </c>
       <c r="GN2" t="n">
-        <v>27.99</v>
+        <v>27.37</v>
       </c>
       <c r="GO2" t="n">
-        <v>146.78</v>
+        <v>151.88</v>
       </c>
       <c r="GP2" t="n">
-        <v>245.97</v>
+        <v>251</v>
       </c>
       <c r="GQ2" t="n">
-        <v>59.47</v>
+        <v>58.35</v>
       </c>
       <c r="GR2" t="n">
-        <v>47.82</v>
+        <v>47.64</v>
       </c>
       <c r="GS2" t="n">
-        <v>124.74</v>
+        <v>122.29</v>
       </c>
       <c r="GT2" t="n">
-        <v>105.8</v>
+        <v>103.17</v>
       </c>
       <c r="GU2" t="n">
-        <v>104.22</v>
+        <v>108.77</v>
       </c>
       <c r="GV2" t="n">
-        <v>123.18</v>
+        <v>121.19</v>
       </c>
       <c r="GW2" t="n">
         <v>212.6</v>
       </c>
       <c r="GX2" t="n">
-        <v>648.02</v>
+        <v>648.14</v>
       </c>
       <c r="GY2" t="n">
-        <v>26.25</v>
+        <v>25.94</v>
       </c>
       <c r="GZ2" t="n">
-        <v>112.2</v>
+        <v>111.04</v>
       </c>
       <c r="HA2" t="n">
-        <v>60.16</v>
+        <v>59.59</v>
       </c>
       <c r="HB2" t="n">
-        <v>321.86</v>
+        <v>312.35</v>
       </c>
       <c r="HC2" t="n">
-        <v>19.93</v>
+        <v>19.43</v>
       </c>
       <c r="HD2" t="n">
-        <v>77.65000000000001</v>
+        <v>77.20999999999999</v>
       </c>
       <c r="HE2" t="n">
-        <v>160.52</v>
+        <v>157.96</v>
       </c>
       <c r="HF2" t="n">
-        <v>145.77</v>
+        <v>144.69</v>
       </c>
       <c r="HG2" t="n">
-        <v>21.22</v>
+        <v>21.04</v>
       </c>
       <c r="HH2" t="n">
-        <v>269.62</v>
+        <v>273.21</v>
       </c>
       <c r="HI2" t="n">
-        <v>63.48</v>
+        <v>63.5</v>
       </c>
       <c r="HJ2" t="n">
-        <v>412.58</v>
+        <v>406.87</v>
       </c>
       <c r="HK2" t="n">
-        <v>205.11</v>
+        <v>204.76</v>
       </c>
       <c r="HL2" t="n">
-        <v>28.49</v>
+        <v>28.48</v>
       </c>
       <c r="HM2" t="n">
-        <v>16.38</v>
+        <v>16.27</v>
       </c>
       <c r="HN2" t="n">
         <v>127.94</v>
       </c>
       <c r="HO2" t="n">
-        <v>33.24</v>
+        <v>32.99</v>
       </c>
       <c r="HP2" t="n">
-        <v>252.68</v>
+        <v>259.56</v>
       </c>
       <c r="HQ2" t="n">
-        <v>16.56</v>
+        <v>16.55</v>
       </c>
       <c r="HR2" t="n">
-        <v>160.7</v>
+        <v>163.51</v>
       </c>
       <c r="HS2" t="n">
-        <v>258.76</v>
+        <v>255.76</v>
       </c>
       <c r="HT2" t="n">
-        <v>192.87</v>
+        <v>193.15</v>
       </c>
       <c r="HU2" t="n">
-        <v>459.96</v>
+        <v>457.62</v>
       </c>
       <c r="HV2" t="n">
-        <v>259.79</v>
+        <v>255.84</v>
       </c>
       <c r="HW2" t="n">
-        <v>69.90000000000001</v>
+        <v>68.86</v>
       </c>
       <c r="HX2" t="n">
-        <v>92.42</v>
+        <v>91.33</v>
       </c>
       <c r="HY2" t="n">
-        <v>281.73</v>
+        <v>279.48</v>
       </c>
       <c r="HZ2" t="n">
-        <v>24.07</v>
+        <v>22.46</v>
       </c>
       <c r="IA2" t="n">
-        <v>168.37</v>
+        <v>166.59</v>
       </c>
       <c r="IB2" t="n">
-        <v>85.89</v>
+        <v>84.47</v>
       </c>
       <c r="IC2" t="n">
-        <v>55.37</v>
+        <v>54.57</v>
       </c>
       <c r="ID2" t="n">
-        <v>26.93</v>
+        <v>26.74</v>
       </c>
       <c r="IE2" t="n">
-        <v>583.1</v>
+        <v>576.36</v>
       </c>
       <c r="IF2" t="n">
-        <v>590.6</v>
+        <v>589.15</v>
       </c>
       <c r="IG2" t="n">
-        <v>18.38</v>
+        <v>18.25</v>
       </c>
       <c r="IH2" t="n">
-        <v>31.76</v>
+        <v>31.46</v>
       </c>
       <c r="II2" t="n">
-        <v>195.69</v>
+        <v>197.78</v>
       </c>
       <c r="IJ2" t="n">
-        <v>95.3</v>
+        <v>102.64</v>
       </c>
       <c r="IK2" t="n">
-        <v>165.33</v>
+        <v>164.25</v>
       </c>
       <c r="IL2" t="n">
-        <v>170.35</v>
+        <v>170.17</v>
       </c>
       <c r="IM2" t="n">
-        <v>130.23</v>
+        <v>130.1</v>
       </c>
       <c r="IN2" t="n">
-        <v>157.08</v>
+        <v>155.05</v>
       </c>
       <c r="IO2" t="n">
-        <v>88.52</v>
+        <v>88.93000000000001</v>
       </c>
       <c r="IP2" t="n">
-        <v>275.97</v>
+        <v>275.14</v>
       </c>
       <c r="IQ2" t="n">
-        <v>36.3</v>
+        <v>36.29</v>
       </c>
       <c r="IR2" t="n">
-        <v>31.8</v>
+        <v>31.62</v>
       </c>
       <c r="IS2" t="n">
-        <v>17.43</v>
+        <v>17.57</v>
       </c>
       <c r="IT2" t="n">
-        <v>179.23</v>
+        <v>177.78</v>
       </c>
       <c r="IU2" t="n">
-        <v>135.39</v>
+        <v>133.7</v>
       </c>
       <c r="IV2" t="n">
-        <v>22.39</v>
+        <v>22.24</v>
       </c>
       <c r="IW2" t="n">
-        <v>26.51</v>
+        <v>26.25</v>
       </c>
       <c r="IX2" t="n">
-        <v>762.55</v>
+        <v>750.47</v>
       </c>
       <c r="IY2" t="n">
-        <v>29.2</v>
+        <v>28.59</v>
       </c>
       <c r="IZ2" t="n">
-        <v>65.52</v>
+        <v>65.72</v>
       </c>
       <c r="JA2" t="n">
-        <v>200.01</v>
+        <v>200.63</v>
       </c>
       <c r="JB2" t="n">
-        <v>245.2</v>
+        <v>241.05</v>
       </c>
       <c r="JC2" t="n">
-        <v>83.19</v>
+        <v>81.51000000000001</v>
       </c>
       <c r="JD2" t="n">
-        <v>57.32</v>
+        <v>56.52</v>
       </c>
       <c r="JE2" t="n">
-        <v>42.15</v>
+        <v>41.82</v>
       </c>
       <c r="JF2" t="n">
-        <v>130.6</v>
+        <v>136.85</v>
       </c>
       <c r="JG2" t="n">
-        <v>123.61</v>
+        <v>121.47</v>
       </c>
       <c r="JH2" t="n">
-        <v>871.6</v>
+        <v>871.45</v>
       </c>
       <c r="JI2" t="n">
-        <v>152.41</v>
+        <v>149.47</v>
       </c>
       <c r="JJ2" t="n">
-        <v>38.5</v>
+        <v>38.09</v>
       </c>
       <c r="JK2" t="n">
-        <v>433.75</v>
+        <v>441.53</v>
       </c>
       <c r="JL2" t="n">
-        <v>252.41</v>
+        <v>250.43</v>
       </c>
       <c r="JM2" t="n">
-        <v>390.76</v>
+        <v>394.89</v>
       </c>
       <c r="JN2" t="n">
-        <v>76.12</v>
+        <v>75.8</v>
       </c>
       <c r="JO2" t="n">
-        <v>197.24</v>
+        <v>197.63</v>
       </c>
       <c r="JP2" t="n">
-        <v>28.49</v>
+        <v>28.86</v>
       </c>
       <c r="JQ2" t="n">
-        <v>153.62</v>
+        <v>148.99</v>
       </c>
       <c r="JR2" t="n">
-        <v>191.26</v>
+        <v>192.29</v>
       </c>
       <c r="JS2" t="n">
-        <v>287.68</v>
+        <v>290.24</v>
       </c>
       <c r="JT2" t="n">
-        <v>231.09</v>
+        <v>228.6</v>
       </c>
       <c r="JU2" t="n">
-        <v>531.89</v>
+        <v>515.78</v>
       </c>
       <c r="JV2" t="n">
-        <v>77.64</v>
+        <v>76.67</v>
       </c>
       <c r="JW2" t="n">
-        <v>565.74</v>
+        <v>563.52</v>
       </c>
       <c r="JX2" t="n">
-        <v>34</v>
+        <v>33.99</v>
       </c>
       <c r="JY2" t="n">
-        <v>77.48999999999999</v>
+        <v>76.73999999999999</v>
       </c>
       <c r="JZ2" t="n">
-        <v>309.35</v>
+        <v>307.16</v>
       </c>
       <c r="KA2" t="n">
-        <v>602.71</v>
+        <v>594.6</v>
       </c>
       <c r="KB2" t="n">
-        <v>92.05</v>
+        <v>91.25</v>
       </c>
       <c r="KC2" t="n">
-        <v>84.31999999999999</v>
+        <v>85.55</v>
       </c>
       <c r="KD2" t="n">
-        <v>727.25</v>
+        <v>724.35</v>
       </c>
       <c r="KE2" t="n">
-        <v>82.23</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="KF2" t="n">
-        <v>1296.52</v>
+        <v>1310.58</v>
       </c>
       <c r="KG2" t="n">
-        <v>40.3</v>
+        <v>34.25</v>
       </c>
       <c r="KH2" t="n">
-        <v>54.2</v>
+        <v>53.7</v>
       </c>
       <c r="KI2" t="n">
-        <v>95.55</v>
+        <v>91.56</v>
       </c>
       <c r="KJ2" t="n">
-        <v>410.06</v>
+        <v>408.63</v>
       </c>
       <c r="KK2" t="n">
-        <v>156.83</v>
+        <v>155.62</v>
       </c>
       <c r="KL2" t="n">
-        <v>31.92</v>
+        <v>30.43</v>
       </c>
       <c r="KM2" t="n">
-        <v>119.57</v>
+        <v>116.81</v>
       </c>
       <c r="KN2" t="n">
-        <v>270.47</v>
+        <v>266.65</v>
       </c>
       <c r="KO2" t="n">
-        <v>58.54</v>
+        <v>53.43</v>
       </c>
       <c r="KP2" t="n">
-        <v>61.06</v>
+        <v>60.51</v>
       </c>
       <c r="KQ2" t="n">
-        <v>697.9</v>
+        <v>699.48</v>
       </c>
       <c r="KR2" t="n">
-        <v>49.45</v>
+        <v>48.11</v>
       </c>
       <c r="KS2" t="n">
-        <v>527.21</v>
+        <v>504.85</v>
       </c>
       <c r="KT2" t="n">
-        <v>136.67</v>
+        <v>136.97</v>
       </c>
       <c r="KU2" t="n">
-        <v>26.37</v>
+        <v>26.09</v>
       </c>
       <c r="KV2" t="n">
-        <v>464.73</v>
+        <v>466.41</v>
       </c>
       <c r="KW2" t="n">
-        <v>571.7</v>
+        <v>572.23</v>
       </c>
       <c r="KX2" t="n">
-        <v>81.72</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="KY2" t="n">
-        <v>117.56</v>
+        <v>117.75</v>
       </c>
       <c r="KZ2" t="n">
-        <v>1043.52</v>
+        <v>1025.56</v>
       </c>
       <c r="LA2" t="n">
-        <v>47.69</v>
+        <v>46.74</v>
       </c>
       <c r="LB2" t="n">
-        <v>29.47</v>
+        <v>29.32</v>
       </c>
       <c r="LC2" t="n">
-        <v>68.44</v>
+        <v>69.19</v>
       </c>
       <c r="LD2" t="n">
-        <v>73.08</v>
+        <v>72.25</v>
       </c>
       <c r="LE2" t="n">
-        <v>39.54</v>
+        <v>38.7</v>
       </c>
       <c r="LF2" t="n">
-        <v>217.01</v>
+        <v>214.51</v>
       </c>
       <c r="LG2" t="n">
-        <v>256.88</v>
+        <v>253.59</v>
       </c>
       <c r="LH2" t="n">
-        <v>111.5</v>
+        <v>110.12</v>
       </c>
       <c r="LI2" t="n">
-        <v>453.98</v>
+        <v>470.3</v>
       </c>
       <c r="LJ2" t="n">
-        <v>26.28</v>
+        <v>26.19</v>
       </c>
       <c r="LK2" t="n">
-        <v>106.3</v>
+        <v>102.55</v>
       </c>
       <c r="LL2" t="n">
-        <v>135.44</v>
+        <v>133.46</v>
       </c>
       <c r="LM2" t="n">
         <v>134.95</v>
       </c>
       <c r="LN2" t="n">
-        <v>7330.68</v>
+        <v>7306.08</v>
       </c>
       <c r="LO2" t="n">
-        <v>219.1</v>
+        <v>219.65</v>
       </c>
       <c r="LP2" t="n">
-        <v>1336.5</v>
+        <v>1323.21</v>
       </c>
       <c r="LQ2" t="n">
-        <v>47.81</v>
+        <v>47.77</v>
       </c>
       <c r="LR2" t="n">
-        <v>206.24</v>
+        <v>202.81</v>
       </c>
       <c r="LS2" t="n">
-        <v>81.83</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="LT2" t="n">
-        <v>50.85</v>
+        <v>49.95</v>
       </c>
       <c r="LU2" t="n">
-        <v>98.95999999999999</v>
+        <v>97.53</v>
       </c>
       <c r="LV2" t="n">
-        <v>173.59</v>
+        <v>172.05</v>
       </c>
       <c r="LW2" t="n">
-        <v>97.98999999999999</v>
+        <v>96.64</v>
       </c>
       <c r="LX2" t="n">
-        <v>105.02</v>
+        <v>103</v>
       </c>
       <c r="LY2" t="n">
-        <v>212.21</v>
+        <v>204.76</v>
       </c>
       <c r="LZ2" t="n">
         <v>117.49</v>
       </c>
       <c r="MA2" t="n">
-        <v>201.68</v>
+        <v>196.55</v>
       </c>
       <c r="MB2" t="n">
-        <v>10.78</v>
+        <v>10.6</v>
       </c>
       <c r="MC2" t="n">
-        <v>693.04</v>
+        <v>678.71</v>
       </c>
       <c r="MD2" t="n">
-        <v>148.48</v>
+        <v>146.84</v>
       </c>
       <c r="ME2" t="n">
-        <v>211.94</v>
+        <v>207.72</v>
       </c>
       <c r="MF2" t="n">
-        <v>76.47</v>
+        <v>76.17</v>
       </c>
       <c r="MG2" t="n">
-        <v>97.06</v>
+        <v>97.92</v>
       </c>
       <c r="MH2" t="n">
-        <v>144.44</v>
+        <v>143.79</v>
       </c>
       <c r="MI2" t="n">
-        <v>25.59</v>
+        <v>25.42</v>
       </c>
       <c r="MJ2" t="n">
-        <v>15.79</v>
+        <v>16.01</v>
       </c>
       <c r="MK2" t="n">
-        <v>148.97</v>
+        <v>149.72</v>
       </c>
       <c r="ML2" t="n">
-        <v>125.38</v>
+        <v>124.81</v>
       </c>
       <c r="MM2" t="n">
-        <v>89.25</v>
+        <v>88.93000000000001</v>
       </c>
       <c r="MN2" t="n">
-        <v>195.38</v>
+        <v>195.63</v>
       </c>
       <c r="MO2" t="n">
-        <v>339.93</v>
+        <v>335.23</v>
       </c>
       <c r="MP2" t="n">
-        <v>117.96</v>
+        <v>114.64</v>
       </c>
       <c r="MQ2" t="n">
-        <v>34.34</v>
+        <v>34.47</v>
       </c>
       <c r="MR2" t="n">
-        <v>86.86</v>
+        <v>84.83</v>
       </c>
       <c r="MS2" t="n">
-        <v>170.75</v>
+        <v>169.35</v>
       </c>
       <c r="MT2" t="n">
-        <v>261.86</v>
+        <v>256.85</v>
       </c>
       <c r="MU2" t="n">
-        <v>120.73</v>
+        <v>119.84</v>
       </c>
       <c r="MV2" t="n">
-        <v>111.78</v>
+        <v>110.67</v>
       </c>
       <c r="MW2" t="n">
-        <v>83.65000000000001</v>
+        <v>83.66</v>
       </c>
       <c r="MX2" t="n">
-        <v>167.8</v>
+        <v>166.72</v>
       </c>
       <c r="MY2" t="n">
-        <v>301.34</v>
+        <v>300.19</v>
       </c>
       <c r="MZ2" t="n">
-        <v>106.53</v>
+        <v>105.85</v>
       </c>
       <c r="NA2" t="n">
-        <v>77.27</v>
+        <v>76.92</v>
       </c>
       <c r="NB2" t="n">
-        <v>290.61</v>
+        <v>297.98</v>
       </c>
       <c r="NC2" t="n">
-        <v>171.94</v>
+        <v>170.16</v>
       </c>
       <c r="ND2" t="n">
-        <v>168.97</v>
+        <v>164.21</v>
       </c>
       <c r="NE2" t="n">
-        <v>277.96</v>
+        <v>272.42</v>
       </c>
       <c r="NF2" t="n">
-        <v>160.45</v>
+        <v>160.93</v>
       </c>
       <c r="NG2" t="n">
-        <v>125.66</v>
+        <v>126.64</v>
       </c>
       <c r="NH2" t="n">
-        <v>74.94</v>
+        <v>74.34</v>
       </c>
       <c r="NI2" t="n">
-        <v>673.88</v>
+        <v>662.33</v>
       </c>
       <c r="NJ2" t="n">
-        <v>24</v>
+        <v>23.94</v>
       </c>
       <c r="NK2" t="n">
-        <v>224.47</v>
+        <v>223.49</v>
       </c>
       <c r="NL2" t="n">
-        <v>239.59</v>
+        <v>236.59</v>
       </c>
       <c r="NM2" t="n">
-        <v>112.67</v>
+        <v>111.01</v>
       </c>
       <c r="NN2" t="n">
-        <v>298.3</v>
+        <v>301.6</v>
       </c>
       <c r="NO2" t="n">
-        <v>51.94</v>
+        <v>49.94</v>
       </c>
       <c r="NP2" t="n">
-        <v>573.17</v>
+        <v>565.52</v>
       </c>
       <c r="NQ2" t="n">
-        <v>140.26</v>
+        <v>139.57</v>
       </c>
       <c r="NR2" t="n">
-        <v>259.82</v>
+        <v>255.89</v>
       </c>
       <c r="NS2" t="n">
-        <v>541.27</v>
+        <v>531.03</v>
       </c>
       <c r="NT2" t="n">
-        <v>329.24</v>
+        <v>325.47</v>
       </c>
       <c r="NU2" t="n">
-        <v>207.91</v>
+        <v>208.18</v>
       </c>
       <c r="NV2" t="n">
-        <v>42.01</v>
+        <v>41.41</v>
       </c>
       <c r="NW2" t="n">
-        <v>101.39</v>
+        <v>99.23999999999999</v>
       </c>
       <c r="NX2" t="n">
-        <v>83.87</v>
+        <v>82.95999999999999</v>
       </c>
       <c r="NY2" t="n">
-        <v>988.46</v>
+        <v>979.8</v>
       </c>
       <c r="NZ2" t="n">
-        <v>360.87</v>
+        <v>354.7</v>
       </c>
       <c r="OA2" t="n">
-        <v>186.07</v>
+        <v>183.67</v>
       </c>
       <c r="OB2" t="n">
         <v>66.08</v>
       </c>
       <c r="OC2" t="n">
-        <v>105.15</v>
+        <v>103.83</v>
       </c>
       <c r="OD2" t="n">
-        <v>339.37</v>
+        <v>334.84</v>
       </c>
       <c r="OE2" t="n">
-        <v>86.69</v>
+        <v>86.63</v>
       </c>
       <c r="OF2" t="n">
-        <v>29.88</v>
+        <v>29.84</v>
       </c>
       <c r="OG2" t="n">
-        <v>112.83</v>
+        <v>112.91</v>
       </c>
       <c r="OH2" t="n">
-        <v>98.90000000000001</v>
+        <v>98.03</v>
       </c>
       <c r="OI2" t="n">
-        <v>132.65</v>
+        <v>132.2</v>
       </c>
       <c r="OJ2" t="n">
-        <v>218.76</v>
+        <v>218.8</v>
       </c>
       <c r="OK2" t="n">
-        <v>388.47</v>
+        <v>384.84</v>
       </c>
       <c r="OL2" t="n">
-        <v>42.19</v>
+        <v>39.58</v>
       </c>
       <c r="OM2" t="n">
-        <v>63.99</v>
+        <v>63.95</v>
       </c>
       <c r="ON2" t="n">
-        <v>529.02</v>
+        <v>508.47</v>
       </c>
       <c r="OO2" t="n">
-        <v>71.76000000000001</v>
+        <v>70.16</v>
       </c>
       <c r="OP2" t="n">
-        <v>265.36</v>
+        <v>255.12</v>
       </c>
       <c r="OQ2" t="n">
-        <v>107.13</v>
+        <v>106.79</v>
       </c>
       <c r="OR2" t="n">
-        <v>209.7</v>
+        <v>209.17</v>
       </c>
       <c r="OS2" t="n">
-        <v>86.54000000000001</v>
+        <v>85.06</v>
       </c>
       <c r="OT2" t="n">
         <v>204.43</v>
       </c>
       <c r="OU2" t="n">
-        <v>128.62</v>
+        <v>127.52</v>
       </c>
       <c r="OV2" t="n">
-        <v>153.04</v>
+        <v>146.55</v>
       </c>
       <c r="OW2" t="n">
-        <v>497.89</v>
+        <v>504.56</v>
       </c>
       <c r="OX2" t="n">
-        <v>167.39</v>
+        <v>168.17</v>
       </c>
       <c r="OY2" t="n">
-        <v>112.5</v>
+        <v>111.46</v>
       </c>
       <c r="OZ2" t="n">
-        <v>355.58</v>
+        <v>336.1</v>
       </c>
       <c r="PA2" t="n">
-        <v>180.57</v>
+        <v>179.64</v>
       </c>
       <c r="PB2" t="n">
-        <v>72.93000000000001</v>
+        <v>72.8</v>
       </c>
       <c r="PC2" t="n">
-        <v>532.74</v>
+        <v>537.83</v>
       </c>
       <c r="PD2" t="n">
-        <v>125.67</v>
+        <v>124.28</v>
       </c>
       <c r="PE2" t="n">
-        <v>57.04</v>
+        <v>55.81</v>
       </c>
       <c r="PF2" t="n">
-        <v>361.29</v>
+        <v>361.94</v>
       </c>
       <c r="PG2" t="n">
-        <v>1337.27</v>
+        <v>1351.82</v>
       </c>
       <c r="PH2" t="n">
-        <v>242.84</v>
+        <v>240.66</v>
       </c>
       <c r="PI2" t="n">
-        <v>73.59</v>
+        <v>73.2</v>
       </c>
       <c r="PJ2" t="n">
-        <v>46.39</v>
+        <v>46.32</v>
       </c>
       <c r="PK2" t="n">
-        <v>646.51</v>
+        <v>610.16</v>
       </c>
       <c r="PL2" t="n">
-        <v>57.46</v>
+        <v>57.77</v>
       </c>
       <c r="PM2" t="n">
-        <v>47.33</v>
+        <v>47.44</v>
       </c>
       <c r="PN2" t="n">
-        <v>80.18000000000001</v>
+        <v>79.25</v>
       </c>
       <c r="PO2" t="n">
-        <v>43.03</v>
+        <v>42.49</v>
       </c>
       <c r="PP2" t="n">
-        <v>360.5</v>
+        <v>372.79</v>
       </c>
       <c r="PQ2" t="n">
-        <v>250.66</v>
+        <v>248.53</v>
       </c>
       <c r="PR2" t="n">
         <v>100.86</v>
       </c>
       <c r="PS2" t="n">
-        <v>115.52</v>
+        <v>113.99</v>
       </c>
       <c r="PT2" t="n">
-        <v>729.7</v>
+        <v>734.0599999999999</v>
       </c>
       <c r="PU2" t="n">
-        <v>530.02</v>
+        <v>527.52</v>
       </c>
       <c r="PV2" t="n">
-        <v>182.71</v>
+        <v>179.06</v>
       </c>
       <c r="PW2" t="n">
-        <v>130.66</v>
+        <v>130.96</v>
       </c>
       <c r="PX2" t="n">
-        <v>64.83</v>
+        <v>59.81</v>
       </c>
       <c r="PY2" t="n">
-        <v>229</v>
+        <v>227.3</v>
       </c>
       <c r="PZ2" t="n">
-        <v>295.14</v>
+        <v>292.87</v>
       </c>
       <c r="QA2" t="n">
-        <v>40.98</v>
+        <v>40.47</v>
       </c>
       <c r="QB2" t="n">
-        <v>462.5</v>
+        <v>452.16</v>
       </c>
       <c r="QC2" t="n">
-        <v>10.75</v>
+        <v>10.56</v>
       </c>
       <c r="QD2" t="n">
-        <v>30.37</v>
+        <v>29.75</v>
       </c>
       <c r="QE2" t="n">
-        <v>355.09</v>
+        <v>351.03</v>
       </c>
       <c r="QF2" t="n">
         <v>165.46</v>
       </c>
       <c r="QG2" t="n">
+        <v>263.5</v>
+      </c>
+      <c r="QH2" t="n">
+        <v>60.66</v>
+      </c>
+      <c r="QI2" t="n">
+        <v>1025.65</v>
+      </c>
+      <c r="QJ2" t="n">
+        <v>188.88</v>
+      </c>
+      <c r="QK2" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="QL2" t="n">
+        <v>103.52</v>
+      </c>
+      <c r="QM2" t="n">
+        <v>109.09</v>
+      </c>
+      <c r="QN2" t="n">
+        <v>226.96</v>
+      </c>
+      <c r="QO2" t="n">
+        <v>382.45</v>
+      </c>
+      <c r="QP2" t="n">
+        <v>102.22</v>
+      </c>
+      <c r="QQ2" t="n">
+        <v>79.16</v>
+      </c>
+      <c r="QR2" t="n">
+        <v>146.23</v>
+      </c>
+      <c r="QS2" t="n">
+        <v>322.86</v>
+      </c>
+      <c r="QT2" t="n">
+        <v>67.19</v>
+      </c>
+      <c r="QU2" t="n">
+        <v>29.53</v>
+      </c>
+      <c r="QV2" t="n">
+        <v>54.72</v>
+      </c>
+      <c r="QW2" t="n">
+        <v>318.22</v>
+      </c>
+      <c r="QX2" t="n">
+        <v>78.28</v>
+      </c>
+      <c r="QY2" t="n">
+        <v>67.23</v>
+      </c>
+      <c r="QZ2" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="RA2" t="n">
+        <v>146.36</v>
+      </c>
+      <c r="RB2" t="n">
+        <v>352.78</v>
+      </c>
+      <c r="RC2" t="n">
+        <v>99.03</v>
+      </c>
+      <c r="RD2" t="n">
+        <v>173.82</v>
+      </c>
+      <c r="RE2" s="2" t="n">
+        <v>45701</v>
+      </c>
+      <c r="RF2" s="2" t="n">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>148.46</v>
+      </c>
+      <c r="B3" t="n">
+        <v>65.92</v>
+      </c>
+      <c r="C3" t="n">
+        <v>131.61</v>
+      </c>
+      <c r="D3" t="n">
+        <v>193.23</v>
+      </c>
+      <c r="E3" t="n">
+        <v>389.13</v>
+      </c>
+      <c r="F3" t="n">
+        <v>458.67</v>
+      </c>
+      <c r="G3" t="n">
+        <v>111.67</v>
+      </c>
+      <c r="H3" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="I3" t="n">
+        <v>103.99</v>
+      </c>
+      <c r="J3" t="n">
+        <v>136.31</v>
+      </c>
+      <c r="K3" t="n">
+        <v>314.88</v>
+      </c>
+      <c r="L3" t="n">
+        <v>141.02</v>
+      </c>
+      <c r="M3" t="n">
+        <v>99.52</v>
+      </c>
+      <c r="N3" t="n">
+        <v>78.97</v>
+      </c>
+      <c r="O3" t="n">
+        <v>95.67</v>
+      </c>
+      <c r="P3" t="n">
+        <v>205.71</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>132.88</v>
+      </c>
+      <c r="R3" t="n">
+        <v>61.05</v>
+      </c>
+      <c r="S3" t="n">
+        <v>192.58</v>
+      </c>
+      <c r="T3" t="n">
+        <v>185.91</v>
+      </c>
+      <c r="U3" t="n">
+        <v>53.53</v>
+      </c>
+      <c r="V3" t="n">
+        <v>228.61</v>
+      </c>
+      <c r="W3" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="X3" t="n">
+        <v>98.34999999999999</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>100.86</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>307.16</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>189.79</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>126.72</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>538.87</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>184.25</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>296.73</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>69.27</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>209.11</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>338.85</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>389.87</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>22.45</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>244.3</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>184.06</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>66.42</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>90.03</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>45.66</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>106.64</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>328.36</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>25.57</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>147.89</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>303.1</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>309.81</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>3469.36</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>219.78</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>182.7</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>683.33</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>46.06</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>49.33</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>46.24</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>30.56</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>224.72</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>480.01</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>89</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>66.77</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>138.43</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>979.35</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>160.24</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>86.77</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>185.22</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>5005.25</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>29.35</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>106.02</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>55.89</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>232.74</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>242.71</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>69.61</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>71.27</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>295.8</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>38.73</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>119.15</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>38.55</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>197.03</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>126.56</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>87.64</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>25.82</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>63.58</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>353.44</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>207.97</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>142.98</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>187.46</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>65.22</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>244.57</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>56.72</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>33.38</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>81.31</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>153.01</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>81.54000000000001</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>359.88</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>155.7</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>58.05</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>267.54</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>107.24</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>299.58</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>136.84</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>205.67</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>63.7</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>82</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>45.96</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>150.61</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>249.78</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>69.70999999999999</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>69.40000000000001</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>89.48</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>87.61</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>35.31</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>24.94</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>96.79000000000001</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>95.53</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>163.01</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>59.8</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>52.05</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>367.73</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>62.77</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>73.48</v>
+      </c>
+      <c r="DS3" t="n">
+        <v>1074.98</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>27.54</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>453.27</v>
+      </c>
+      <c r="DV3" t="n">
+        <v>89.76000000000001</v>
+      </c>
+      <c r="DW3" t="n">
+        <v>33.04</v>
+      </c>
+      <c r="DX3" t="n">
+        <v>369.24</v>
+      </c>
+      <c r="DY3" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="DZ3" t="n">
+        <v>203.32</v>
+      </c>
+      <c r="EA3" t="n">
+        <v>193.34</v>
+      </c>
+      <c r="EB3" t="n">
+        <v>177.35</v>
+      </c>
+      <c r="EC3" t="n">
+        <v>465.07</v>
+      </c>
+      <c r="ED3" t="n">
+        <v>110.1</v>
+      </c>
+      <c r="EE3" t="n">
+        <v>63.95</v>
+      </c>
+      <c r="EF3" t="n">
+        <v>34.15</v>
+      </c>
+      <c r="EG3" t="n">
+        <v>83.91</v>
+      </c>
+      <c r="EH3" t="n">
+        <v>155.99</v>
+      </c>
+      <c r="EI3" t="n">
+        <v>164.59</v>
+      </c>
+      <c r="EJ3" t="n">
+        <v>189.66</v>
+      </c>
+      <c r="EK3" t="n">
+        <v>72.75</v>
+      </c>
+      <c r="EL3" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="EM3" t="n">
+        <v>56.62</v>
+      </c>
+      <c r="EN3" t="n">
+        <v>420.37</v>
+      </c>
+      <c r="EO3" t="n">
+        <v>202.53</v>
+      </c>
+      <c r="EP3" t="n">
+        <v>38.25</v>
+      </c>
+      <c r="EQ3" t="n">
+        <v>129.31</v>
+      </c>
+      <c r="ER3" t="n">
+        <v>113.75</v>
+      </c>
+      <c r="ES3" t="n">
+        <v>84</v>
+      </c>
+      <c r="ET3" t="n">
+        <v>101.63</v>
+      </c>
+      <c r="EU3" t="n">
+        <v>307.02</v>
+      </c>
+      <c r="EV3" t="n">
+        <v>69.18000000000001</v>
+      </c>
+      <c r="EW3" t="n">
+        <v>265.32</v>
+      </c>
+      <c r="EX3" t="n">
+        <v>51.52</v>
+      </c>
+      <c r="EY3" t="n">
+        <v>75.91</v>
+      </c>
+      <c r="EZ3" t="n">
+        <v>129.63</v>
+      </c>
+      <c r="FA3" t="n">
+        <v>391.68</v>
+      </c>
+      <c r="FB3" t="n">
+        <v>125.19</v>
+      </c>
+      <c r="FC3" t="n">
+        <v>62.52</v>
+      </c>
+      <c r="FD3" t="n">
+        <v>83.13</v>
+      </c>
+      <c r="FE3" t="n">
+        <v>128.99</v>
+      </c>
+      <c r="FF3" t="n">
+        <v>267.87</v>
+      </c>
+      <c r="FG3" t="n">
+        <v>52.75</v>
+      </c>
+      <c r="FH3" t="n">
+        <v>250.69</v>
+      </c>
+      <c r="FI3" t="n">
+        <v>921.39</v>
+      </c>
+      <c r="FJ3" t="n">
+        <v>71.44</v>
+      </c>
+      <c r="FK3" t="n">
+        <v>291.2</v>
+      </c>
+      <c r="FL3" t="n">
+        <v>69.58</v>
+      </c>
+      <c r="FM3" t="n">
+        <v>335.17</v>
+      </c>
+      <c r="FN3" t="n">
+        <v>66.73</v>
+      </c>
+      <c r="FO3" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="FP3" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="FQ3" t="n">
+        <v>203</v>
+      </c>
+      <c r="FR3" t="n">
+        <v>156</v>
+      </c>
+      <c r="FS3" t="n">
+        <v>107.88</v>
+      </c>
+      <c r="FT3" t="n">
+        <v>309.88</v>
+      </c>
+      <c r="FU3" t="n">
+        <v>459.71</v>
+      </c>
+      <c r="FV3" t="n">
+        <v>74.68000000000001</v>
+      </c>
+      <c r="FW3" t="n">
+        <v>111.75</v>
+      </c>
+      <c r="FX3" t="n">
+        <v>262.99</v>
+      </c>
+      <c r="FY3" t="n">
+        <v>70.48</v>
+      </c>
+      <c r="FZ3" t="n">
+        <v>43.49</v>
+      </c>
+      <c r="GA3" t="n">
+        <v>160.25</v>
+      </c>
+      <c r="GB3" t="n">
+        <v>40.19</v>
+      </c>
+      <c r="GC3" t="n">
+        <v>229.94</v>
+      </c>
+      <c r="GD3" t="n">
+        <v>36.64</v>
+      </c>
+      <c r="GE3" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="GF3" t="n">
+        <v>109.89</v>
+      </c>
+      <c r="GG3" t="n">
+        <v>81.55</v>
+      </c>
+      <c r="GH3" t="n">
+        <v>55.38</v>
+      </c>
+      <c r="GI3" t="n">
+        <v>20.19</v>
+      </c>
+      <c r="GJ3" t="n">
+        <v>40.15</v>
+      </c>
+      <c r="GK3" t="n">
+        <v>209.59</v>
+      </c>
+      <c r="GL3" t="n">
+        <v>516.9</v>
+      </c>
+      <c r="GM3" t="n">
+        <v>207.89</v>
+      </c>
+      <c r="GN3" t="n">
+        <v>27.99</v>
+      </c>
+      <c r="GO3" t="n">
+        <v>146.78</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>245.97</v>
+      </c>
+      <c r="GQ3" t="n">
+        <v>59.47</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>47.82</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>124.74</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>105.8</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>104.22</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>123.18</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>182.22</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>648.02</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>112.2</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>60.16</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>321.86</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>19.93</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>77.65000000000001</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>160.52</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>145.77</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>21.22</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>269.62</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>63.48</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>412.58</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>205.11</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>28.49</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>133.24</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>33.24</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>252.68</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>16.56</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>160.7</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>258.76</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>192.87</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>459.96</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>259.79</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>92.42</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>281.73</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>24.07</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>168.37</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>85.89</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>55.37</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>26.93</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>583.1</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>590.6</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>18.38</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>31.76</v>
+      </c>
+      <c r="II3" t="n">
+        <v>195.69</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>95.3</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>165.33</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>170.35</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>130.23</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>157.08</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>88.52</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>275.97</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>17.43</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>179.23</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>135.39</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>22.39</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>26.51</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>762.55</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>65.52</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>200.01</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>245.2</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>83.19</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>57.32</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>42.15</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>130.6</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>123.61</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>871.6</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>152.41</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>433.75</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>252.41</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>390.76</v>
+      </c>
+      <c r="JN3" t="n">
+        <v>76.12</v>
+      </c>
+      <c r="JO3" t="n">
+        <v>197.24</v>
+      </c>
+      <c r="JP3" t="n">
+        <v>28.49</v>
+      </c>
+      <c r="JQ3" t="n">
+        <v>153.62</v>
+      </c>
+      <c r="JR3" t="n">
+        <v>191.26</v>
+      </c>
+      <c r="JS3" t="n">
+        <v>287.68</v>
+      </c>
+      <c r="JT3" t="n">
+        <v>231.09</v>
+      </c>
+      <c r="JU3" t="n">
+        <v>531.89</v>
+      </c>
+      <c r="JV3" t="n">
+        <v>77.64</v>
+      </c>
+      <c r="JW3" t="n">
+        <v>565.74</v>
+      </c>
+      <c r="JX3" t="n">
+        <v>34</v>
+      </c>
+      <c r="JY3" t="n">
+        <v>77.48999999999999</v>
+      </c>
+      <c r="JZ3" t="n">
+        <v>309.35</v>
+      </c>
+      <c r="KA3" t="n">
+        <v>602.71</v>
+      </c>
+      <c r="KB3" t="n">
+        <v>92.05</v>
+      </c>
+      <c r="KC3" t="n">
+        <v>84.31999999999999</v>
+      </c>
+      <c r="KD3" t="n">
+        <v>727.25</v>
+      </c>
+      <c r="KE3" t="n">
+        <v>82.23</v>
+      </c>
+      <c r="KF3" t="n">
+        <v>1296.52</v>
+      </c>
+      <c r="KG3" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="KH3" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="KI3" t="n">
+        <v>95.55</v>
+      </c>
+      <c r="KJ3" t="n">
+        <v>410.06</v>
+      </c>
+      <c r="KK3" t="n">
+        <v>156.83</v>
+      </c>
+      <c r="KL3" t="n">
+        <v>31.92</v>
+      </c>
+      <c r="KM3" t="n">
+        <v>119.57</v>
+      </c>
+      <c r="KN3" t="n">
+        <v>270.47</v>
+      </c>
+      <c r="KO3" t="n">
+        <v>58.54</v>
+      </c>
+      <c r="KP3" t="n">
+        <v>61.06</v>
+      </c>
+      <c r="KQ3" t="n">
+        <v>697.9</v>
+      </c>
+      <c r="KR3" t="n">
+        <v>49.45</v>
+      </c>
+      <c r="KS3" t="n">
+        <v>527.21</v>
+      </c>
+      <c r="KT3" t="n">
+        <v>136.67</v>
+      </c>
+      <c r="KU3" t="n">
+        <v>26.37</v>
+      </c>
+      <c r="KV3" t="n">
+        <v>464.73</v>
+      </c>
+      <c r="KW3" t="n">
+        <v>571.7</v>
+      </c>
+      <c r="KX3" t="n">
+        <v>81.72</v>
+      </c>
+      <c r="KY3" t="n">
+        <v>117.56</v>
+      </c>
+      <c r="KZ3" t="n">
+        <v>1043.52</v>
+      </c>
+      <c r="LA3" t="n">
+        <v>47.69</v>
+      </c>
+      <c r="LB3" t="n">
+        <v>29.47</v>
+      </c>
+      <c r="LC3" t="n">
+        <v>68.44</v>
+      </c>
+      <c r="LD3" t="n">
+        <v>73.08</v>
+      </c>
+      <c r="LE3" t="n">
+        <v>39.54</v>
+      </c>
+      <c r="LF3" t="n">
+        <v>217.01</v>
+      </c>
+      <c r="LG3" t="n">
+        <v>256.88</v>
+      </c>
+      <c r="LH3" t="n">
+        <v>111.5</v>
+      </c>
+      <c r="LI3" t="n">
+        <v>453.98</v>
+      </c>
+      <c r="LJ3" t="n">
+        <v>26.28</v>
+      </c>
+      <c r="LK3" t="n">
+        <v>106.3</v>
+      </c>
+      <c r="LL3" t="n">
+        <v>135.44</v>
+      </c>
+      <c r="LM3" t="n">
+        <v>138.56</v>
+      </c>
+      <c r="LN3" t="n">
+        <v>7330.68</v>
+      </c>
+      <c r="LO3" t="n">
+        <v>219.1</v>
+      </c>
+      <c r="LP3" t="n">
+        <v>1336.5</v>
+      </c>
+      <c r="LQ3" t="n">
+        <v>47.81</v>
+      </c>
+      <c r="LR3" t="n">
+        <v>206.24</v>
+      </c>
+      <c r="LS3" t="n">
+        <v>81.83</v>
+      </c>
+      <c r="LT3" t="n">
+        <v>50.85</v>
+      </c>
+      <c r="LU3" t="n">
+        <v>98.95999999999999</v>
+      </c>
+      <c r="LV3" t="n">
+        <v>173.59</v>
+      </c>
+      <c r="LW3" t="n">
+        <v>97.98999999999999</v>
+      </c>
+      <c r="LX3" t="n">
+        <v>105.02</v>
+      </c>
+      <c r="LY3" t="n">
+        <v>212.21</v>
+      </c>
+      <c r="LZ3" t="n">
+        <v>118.72</v>
+      </c>
+      <c r="MA3" t="n">
+        <v>201.68</v>
+      </c>
+      <c r="MB3" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="MC3" t="n">
+        <v>693.04</v>
+      </c>
+      <c r="MD3" t="n">
+        <v>148.48</v>
+      </c>
+      <c r="ME3" t="n">
+        <v>211.94</v>
+      </c>
+      <c r="MF3" t="n">
+        <v>76.47</v>
+      </c>
+      <c r="MG3" t="n">
+        <v>97.06</v>
+      </c>
+      <c r="MH3" t="n">
+        <v>144.44</v>
+      </c>
+      <c r="MI3" t="n">
+        <v>25.59</v>
+      </c>
+      <c r="MJ3" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="MK3" t="n">
+        <v>148.97</v>
+      </c>
+      <c r="ML3" t="n">
+        <v>125.38</v>
+      </c>
+      <c r="MM3" t="n">
+        <v>89.25</v>
+      </c>
+      <c r="MN3" t="n">
+        <v>195.38</v>
+      </c>
+      <c r="MO3" t="n">
+        <v>339.93</v>
+      </c>
+      <c r="MP3" t="n">
+        <v>117.96</v>
+      </c>
+      <c r="MQ3" t="n">
+        <v>34.34</v>
+      </c>
+      <c r="MR3" t="n">
+        <v>86.86</v>
+      </c>
+      <c r="MS3" t="n">
+        <v>170.75</v>
+      </c>
+      <c r="MT3" t="n">
+        <v>261.86</v>
+      </c>
+      <c r="MU3" t="n">
+        <v>120.73</v>
+      </c>
+      <c r="MV3" t="n">
+        <v>111.78</v>
+      </c>
+      <c r="MW3" t="n">
+        <v>83.65000000000001</v>
+      </c>
+      <c r="MX3" t="n">
+        <v>167.8</v>
+      </c>
+      <c r="MY3" t="n">
+        <v>301.34</v>
+      </c>
+      <c r="MZ3" t="n">
+        <v>106.53</v>
+      </c>
+      <c r="NA3" t="n">
+        <v>77.27</v>
+      </c>
+      <c r="NB3" t="n">
+        <v>290.61</v>
+      </c>
+      <c r="NC3" t="n">
+        <v>171.94</v>
+      </c>
+      <c r="ND3" t="n">
+        <v>168.97</v>
+      </c>
+      <c r="NE3" t="n">
+        <v>277.96</v>
+      </c>
+      <c r="NF3" t="n">
+        <v>160.45</v>
+      </c>
+      <c r="NG3" t="n">
+        <v>125.66</v>
+      </c>
+      <c r="NH3" t="n">
+        <v>74.94</v>
+      </c>
+      <c r="NI3" t="n">
+        <v>673.88</v>
+      </c>
+      <c r="NJ3" t="n">
+        <v>24</v>
+      </c>
+      <c r="NK3" t="n">
+        <v>224.47</v>
+      </c>
+      <c r="NL3" t="n">
+        <v>239.59</v>
+      </c>
+      <c r="NM3" t="n">
+        <v>112.67</v>
+      </c>
+      <c r="NN3" t="n">
+        <v>298.3</v>
+      </c>
+      <c r="NO3" t="n">
+        <v>51.94</v>
+      </c>
+      <c r="NP3" t="n">
+        <v>573.17</v>
+      </c>
+      <c r="NQ3" t="n">
+        <v>140.26</v>
+      </c>
+      <c r="NR3" t="n">
+        <v>259.82</v>
+      </c>
+      <c r="NS3" t="n">
+        <v>541.27</v>
+      </c>
+      <c r="NT3" t="n">
+        <v>329.24</v>
+      </c>
+      <c r="NU3" t="n">
+        <v>207.91</v>
+      </c>
+      <c r="NV3" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="NW3" t="n">
+        <v>101.39</v>
+      </c>
+      <c r="NX3" t="n">
+        <v>83.87</v>
+      </c>
+      <c r="NY3" t="n">
+        <v>988.46</v>
+      </c>
+      <c r="NZ3" t="n">
+        <v>360.87</v>
+      </c>
+      <c r="OA3" t="n">
+        <v>186.07</v>
+      </c>
+      <c r="OB3" t="n">
+        <v>66.08</v>
+      </c>
+      <c r="OC3" t="n">
+        <v>105.15</v>
+      </c>
+      <c r="OD3" t="n">
+        <v>339.37</v>
+      </c>
+      <c r="OE3" t="n">
+        <v>86.69</v>
+      </c>
+      <c r="OF3" t="n">
+        <v>29.88</v>
+      </c>
+      <c r="OG3" t="n">
+        <v>112.83</v>
+      </c>
+      <c r="OH3" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="OI3" t="n">
+        <v>132.65</v>
+      </c>
+      <c r="OJ3" t="n">
+        <v>218.76</v>
+      </c>
+      <c r="OK3" t="n">
+        <v>388.47</v>
+      </c>
+      <c r="OL3" t="n">
+        <v>42.19</v>
+      </c>
+      <c r="OM3" t="n">
+        <v>63.99</v>
+      </c>
+      <c r="ON3" t="n">
+        <v>529.02</v>
+      </c>
+      <c r="OO3" t="n">
+        <v>71.76000000000001</v>
+      </c>
+      <c r="OP3" t="n">
+        <v>265.36</v>
+      </c>
+      <c r="OQ3" t="n">
+        <v>107.13</v>
+      </c>
+      <c r="OR3" t="n">
+        <v>209.7</v>
+      </c>
+      <c r="OS3" t="n">
+        <v>86.54000000000001</v>
+      </c>
+      <c r="OT3" t="n">
+        <v>205.33</v>
+      </c>
+      <c r="OU3" t="n">
+        <v>128.62</v>
+      </c>
+      <c r="OV3" t="n">
+        <v>153.04</v>
+      </c>
+      <c r="OW3" t="n">
+        <v>497.89</v>
+      </c>
+      <c r="OX3" t="n">
+        <v>167.39</v>
+      </c>
+      <c r="OY3" t="n">
+        <v>112.5</v>
+      </c>
+      <c r="OZ3" t="n">
+        <v>355.58</v>
+      </c>
+      <c r="PA3" t="n">
+        <v>180.57</v>
+      </c>
+      <c r="PB3" t="n">
+        <v>72.93000000000001</v>
+      </c>
+      <c r="PC3" t="n">
+        <v>532.74</v>
+      </c>
+      <c r="PD3" t="n">
+        <v>125.67</v>
+      </c>
+      <c r="PE3" t="n">
+        <v>57.04</v>
+      </c>
+      <c r="PF3" t="n">
+        <v>361.29</v>
+      </c>
+      <c r="PG3" t="n">
+        <v>1337.27</v>
+      </c>
+      <c r="PH3" t="n">
+        <v>242.84</v>
+      </c>
+      <c r="PI3" t="n">
+        <v>73.59</v>
+      </c>
+      <c r="PJ3" t="n">
+        <v>46.39</v>
+      </c>
+      <c r="PK3" t="n">
+        <v>646.51</v>
+      </c>
+      <c r="PL3" t="n">
+        <v>57.46</v>
+      </c>
+      <c r="PM3" t="n">
+        <v>47.33</v>
+      </c>
+      <c r="PN3" t="n">
+        <v>80.18000000000001</v>
+      </c>
+      <c r="PO3" t="n">
+        <v>43.03</v>
+      </c>
+      <c r="PP3" t="n">
+        <v>360.5</v>
+      </c>
+      <c r="PQ3" t="n">
+        <v>250.66</v>
+      </c>
+      <c r="PR3" t="n">
+        <v>103.97</v>
+      </c>
+      <c r="PS3" t="n">
+        <v>115.52</v>
+      </c>
+      <c r="PT3" t="n">
+        <v>729.7</v>
+      </c>
+      <c r="PU3" t="n">
+        <v>530.02</v>
+      </c>
+      <c r="PV3" t="n">
+        <v>182.71</v>
+      </c>
+      <c r="PW3" t="n">
+        <v>130.66</v>
+      </c>
+      <c r="PX3" t="n">
+        <v>64.83</v>
+      </c>
+      <c r="PY3" t="n">
+        <v>229</v>
+      </c>
+      <c r="PZ3" t="n">
+        <v>295.14</v>
+      </c>
+      <c r="QA3" t="n">
+        <v>40.98</v>
+      </c>
+      <c r="QB3" t="n">
+        <v>462.5</v>
+      </c>
+      <c r="QC3" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="QD3" t="n">
+        <v>30.37</v>
+      </c>
+      <c r="QE3" t="n">
+        <v>355.09</v>
+      </c>
+      <c r="QF3" t="n">
+        <v>167.48</v>
+      </c>
+      <c r="QG3" t="n">
         <v>269</v>
       </c>
-      <c r="QH2" t="n">
+      <c r="QH3" t="n">
         <v>61.45</v>
       </c>
-      <c r="QI2" t="n">
+      <c r="QI3" t="n">
         <v>1028.55</v>
       </c>
-      <c r="QJ2" t="n">
+      <c r="QJ3" t="n">
         <v>196.34</v>
       </c>
-      <c r="QK2" t="n">
+      <c r="QK3" t="n">
         <v>9.74</v>
       </c>
-      <c r="QL2" t="n">
+      <c r="QL3" t="n">
         <v>104.87</v>
       </c>
-      <c r="QM2" t="n">
+      <c r="QM3" t="n">
         <v>109.43</v>
       </c>
-      <c r="QN2" t="n">
+      <c r="QN3" t="n">
         <v>227.32</v>
       </c>
-      <c r="QO2" t="n">
+      <c r="QO3" t="n">
         <v>379.62</v>
       </c>
-      <c r="QP2" t="n">
+      <c r="QP3" t="n">
         <v>103.81</v>
       </c>
-      <c r="QQ2" t="n">
+      <c r="QQ3" t="n">
         <v>78.70999999999999</v>
       </c>
-      <c r="QR2" t="n">
+      <c r="QR3" t="n">
         <v>151.13</v>
       </c>
-      <c r="QS2" t="n">
+      <c r="QS3" t="n">
         <v>198.66</v>
       </c>
-      <c r="QT2" t="n">
+      <c r="QT3" t="n">
         <v>67.48999999999999</v>
       </c>
-      <c r="QU2" t="n">
+      <c r="QU3" t="n">
         <v>29.64</v>
       </c>
-      <c r="QV2" t="n">
+      <c r="QV3" t="n">
         <v>57.42</v>
       </c>
-      <c r="QW2" t="n">
+      <c r="QW3" t="n">
         <v>321.54</v>
       </c>
-      <c r="QX2" t="n">
+      <c r="QX3" t="n">
         <v>80.56999999999999</v>
       </c>
-      <c r="QY2" t="n">
+      <c r="QY3" t="n">
         <v>68.31</v>
       </c>
-      <c r="QZ2" t="n">
+      <c r="QZ3" t="n">
         <v>131.05</v>
       </c>
-      <c r="RA2" t="n">
+      <c r="RA3" t="n">
         <v>148.42</v>
       </c>
-      <c r="RB2" t="n">
+      <c r="RB3" t="n">
         <v>323.72</v>
       </c>
-      <c r="RC2" t="n">
+      <c r="RC3" t="n">
         <v>99.89</v>
       </c>
-      <c r="RD2" t="n">
+      <c r="RD3" t="n">
         <v>164.52</v>
       </c>
-      <c r="RE2" s="2" t="n">
-        <v>45701.75241438721</v>
+      <c r="RE3" s="2" t="n">
+        <v>45702</v>
+      </c>
+      <c r="RF3" s="2" t="n">
+        <v>45702</v>
       </c>
     </row>
   </sheetData>
